--- a/biology/Zoologie/Amolops_loloensis/Amolops_loloensis.xlsx
+++ b/biology/Zoologie/Amolops_loloensis/Amolops_loloensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops loloensis est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops loloensis est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud de la province du Sichuan en République populaire de Chine. Elle se rencontre dans les xians de Zhaojue, de Mianning, de Hongya, de Luding et de Baoxing, entre 1 840 et 3 700 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud de la province du Sichuan en République populaire de Chine. Elle se rencontre dans les xians de Zhaojue, de Mianning, de Hongya, de Luding et de Baoxing, entre 1 840 et 3 700 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops loloensis[3] mesure de 67 à 77 mm pour les femelles. La taille des mâles n'est pas précisée dans la publication originale. Son dos est vert foncé avec de grandes taches brunes cerclées de vert clair. Ses membres postérieurs sont rayés de quatre rayures brunes surlignées de vert clair et deux ou trois sont présentes sur ses membres antérieurs. Sa face ventrale est jaune sale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops loloensis mesure de 67 à 77 mm pour les femelles. La taille des mâles n'est pas précisée dans la publication originale. Son dos est vert foncé avec de grandes taches brunes cerclées de vert clair. Ses membres postérieurs sont rayés de quatre rayures brunes surlignées de vert clair et deux ou trois sont présentes sur ses membres antérieurs. Sa face ventrale est jaune sale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de lolo[kou] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Lolokou, désormais nommé Jiafanggou ou Jiefang Gou, dans le xian de Zhaojue au Sichuan.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liu, 1950 : Amphibians of western China. Fieldiana, Zoology Memoires, vol. 2, p. 1-400 (texte intégral).</t>
         </is>
